--- a/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.603</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.893</v>
+        <v>15.993</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.781</v>
+        <v>15.927</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.991</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.615</v>
+        <v>1.627</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.663643732265541</v>
+        <v>9.764839741948634</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.726618332297683</v>
+        <v>10.00292113351142</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16.88380651543516</v>
+        <v>18.2922883713885</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.104921828560862</v>
+        <v>3.230281472077714</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.27834007925787</v>
+        <v>10.93829064642471</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>11.80770566095923</v>
+        <v>12.68236009609974</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.144862995826585</v>
+        <v>7.413384478173604</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.13536272781545</v>
+        <v>24.78751845123221</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.1535863089413</v>
+        <v>27.06504679506433</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.781848386678746</v>
+        <v>9.617672880543097</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.48610081348585</v>
+        <v>12.57506813607064</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.1219353434273</v>
+        <v>14.93698147562803</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.39715989042276</v>
+        <v>12.96701892930316</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.897288939008099</v>
+        <v>6.165051598294937</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.92691074376999</v>
+        <v>15.5930450724771</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.19440521863207</v>
+        <v>10.82750750845124</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.29541733281416</v>
+        <v>19.67497242374578</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.2187569342402</v>
+        <v>28.45614436376263</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.964727534656433</v>
+        <v>6.192708325483867</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.967600316576494</v>
+        <v>10.16432061384969</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.33394368861278</v>
+        <v>15.02971261068091</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.012574300829094</v>
+        <v>3.132373787941603</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.24112259908784</v>
+        <v>14.22979199936661</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.1055622947532</v>
+        <v>18.29743473370615</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.62932501971349</v>
+        <v>24.3966619546167</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.18426415959282</v>
+        <v>23.88658631891502</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.399206277360307</v>
+        <v>1.701346158628883</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.45680544645186</v>
+        <v>26.65097873388455</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.993305253421</v>
+        <v>29.15801899970663</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.217734383003993</v>
+        <v>6.051612901948928</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.50444616459419</v>
+        <v>37.91742935507973</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.37300035889987</v>
+        <v>35.82343205188674</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.36983680003315</v>
+        <v>36.97261659802012</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.82349867083816</v>
+        <v>43.94596103390743</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.09342351706966</v>
+        <v>44.69303501152163</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.78312214180783</v>
+        <v>20.3288136308466</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.31107785124251</v>
+        <v>24.5672675453915</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.43847095106951</v>
+        <v>27.9798052852966</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.26767900258356</v>
+        <v>16.56694332025616</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.53971118049788</v>
+        <v>26.21660495138296</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.35524049321484</v>
+        <v>30.65566071246639</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.824276815619399</v>
+        <v>5.739683865994827</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.31582964668725</v>
+        <v>24.78387630752361</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.70638351741578</v>
+        <v>32.99290503640443</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>38.14856885924929</v>
+        <v>40.14100798639316</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.245994163511028</v>
+        <v>9.204451907280649</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.65919071049029</v>
+        <v>20.5750643338292</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.72658580693513</v>
+        <v>24.22879932218875</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.265024052354629</v>
+        <v>1.484505596446326</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.48193608291894</v>
+        <v>25.86165508242595</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.10465921201873</v>
+        <v>30.15343833564616</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.900448348803927</v>
+        <v>7.76510395698536</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.99762347055099</v>
+        <v>40.77784843244922</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.79854642146258</v>
+        <v>43.67105084846628</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40.14822746712896</v>
+        <v>41.59576018253941</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>45.06832987158725</v>
+        <v>46.76458426423751</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.70733676229805</v>
+        <v>50.80395172397598</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.71727687469797</v>
+        <v>11.81086131332023</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>23.68325196495673</v>
+        <v>26.04757609771146</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.28098239638041</v>
+        <v>30.08199934109772</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.3246146700877</v>
+        <v>11.77277565658825</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.65382651000839</v>
+        <v>26.12769690274996</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.6808540144458</v>
+        <v>31.20385126286783</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.846873250836431</v>
+        <v>6.084965820511584</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.20102803085469</v>
+        <v>21.44559787022867</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>33.31320225570606</v>
+        <v>34.36791859359997</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.245591390693008</v>
+        <v>4.905930526214522</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.9804249569271</v>
+        <v>35.77764214036883</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.717622322862599</v>
+        <v>5.887219965302439</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.97081258965316</v>
+        <v>16.32915243089364</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>19.99052007528689</v>
+        <v>20.90738573565652</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.380491901582573</v>
+        <v>1.573221032236745</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.64590321513119</v>
+        <v>25.40962389374405</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.76911198345876</v>
+        <v>30.33573881922385</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.238071112459359</v>
+        <v>2.543409471234213</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.50706064397551</v>
+        <v>36.49644016330825</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.75646815859538</v>
+        <v>40.27229103545842</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.35784412956124</v>
+        <v>32.28736588888225</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.41825553120712</v>
+        <v>36.128218763997</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.40179965309103</v>
+        <v>42.36314549454096</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>8.40069521231289</v>
+        <v>8.300254071863176</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.72365707714892</v>
+        <v>16.7274460424591</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.65608963370862</v>
+        <v>29.12090153036758</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.49479070149804</v>
+        <v>8.780243515070328</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.88674967808007</v>
+        <v>22.77547286879583</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.00151838514168</v>
+        <v>29.25833570825909</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.120983153491977</v>
+        <v>5.887887336751739</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.07283832066005</v>
+        <v>22.75277455124711</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.26863405534078</v>
+        <v>33.50656728938795</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.9499504111758483</v>
+        <v>1.847757454778009</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.47846624580147</v>
+        <v>32.64086699368153</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16.42653475248116</v>
+        <v>18.09533525829674</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>14.60051362699029</v>
+        <v>15.76219712410069</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.7985354394314</v>
+        <v>34.03929823196226</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.41525520112101</v>
+        <v>37.31077618923659</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5.786741958401841</v>
+        <v>6.141970959484482</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11.07994326336151</v>
+        <v>12.53143303943734</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.00937498771812</v>
+        <v>18.80631725779196</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.44767366345533</v>
+        <v>14.11419364921085</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.48669139299188</v>
+        <v>22.56479522234246</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.05115805226566</v>
+        <v>31.57914784685792</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5.344474692723026</v>
+        <v>5.454147422348893</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.779370066428726</v>
+        <v>9.052103995596081</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>10.0364382224702</v>
+        <v>11.96076237959046</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.51476869265862</v>
+        <v>3.313694686241416</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.34048650766157</v>
+        <v>16.0477932438587</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.95499750734621</v>
+        <v>30.93776416338565</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>16.84352295776701</v>
+        <v>18.38856619149711</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.90284555633993</v>
+        <v>38.0096918663849</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.52714785130632</v>
+        <v>43.18462132406523</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5.570421082236464</v>
+        <v>5.202203116177166</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.69687336115311</v>
+        <v>13.83192380249515</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>21.14885234294924</v>
+        <v>22.09928143860028</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.33625328919604</v>
+        <v>49.26581035425028</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.57361287174876</v>
+        <v>43.37253700633345</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.72619423506285</v>
+        <v>54.55215588697594</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.96422750166818</v>
+        <v>57.94114682135211</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.55308234266704</v>
+        <v>19.37483523430408</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>46.71669769525114</v>
+        <v>50.00880929960825</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.83768136091874</v>
+        <v>53.33098788191873</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.65127819206315</v>
+        <v>26.42617272717618</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.67918872029216</v>
+        <v>34.78851743820603</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.27385621834698</v>
+        <v>41.43171595950263</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.356249498365557</v>
+        <v>7.405740522296888</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>34.43123653722365</v>
+        <v>33.68456674348102</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.02860986826008</v>
+        <v>41.52078618707614</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.918337298432192</v>
+        <v>8.616746594580821</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.35093426053947</v>
+        <v>56.59139167318548</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.68304841825831</v>
+        <v>64.02174337794428</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.28743793309182</v>
+        <v>68.18286503607092</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.85331809136174</v>
+        <v>76.4517474689398</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80.93569935049945</v>
+        <v>81.9297577805709</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.92293598422333</v>
+        <v>34.73319111854607</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.80046034867095</v>
+        <v>69.12504582068834</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>71.81259570656462</v>
+        <v>73.11281788160473</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.35072652328027</v>
+        <v>53.61132112335783</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>33.69278207613343</v>
+        <v>35.30270346604157</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.95091666500077</v>
+        <v>42.60536519028877</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.53484181668496</v>
+        <v>57.17191513303325</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.58482423937835</v>
+        <v>15.7094751285045</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>43.47902585059566</v>
+        <v>45.29941262445345</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.02232233080706</v>
+        <v>51.82538049525786</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.51403723741372</v>
+        <v>17.02837355723469</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.53601996913846</v>
+        <v>32.17429701102814</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.18360708825094</v>
+        <v>39.83517950148524</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6.607469361644377</v>
+        <v>6.864992548603507</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.08143225163801</v>
+        <v>32.15418747007085</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>42.42487734857754</v>
+        <v>42.61932708822617</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.847597746029606</v>
+        <v>8.596307399803781</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>53.11848179868889</v>
+        <v>54.45842851444921</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>67.0644704914431</v>
+        <v>68.41505515007776</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>64.87186744623384</v>
+        <v>66.10079061884082</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>70.9344514082907</v>
+        <v>71.86600613133933</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.47136440287653</v>
+        <v>81.36657086333668</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.1342265577437</v>
+        <v>24.62743009827592</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>60.93416038928466</v>
+        <v>60.61889784098378</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>71.35268636734649</v>
+        <v>70.85471639956184</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>46.97608135549203</v>
+        <v>48.61426883572504</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>23.21649456505707</v>
+        <v>23.98499913611712</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.77908190675303</v>
+        <v>30.35975542096166</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>39.33926975976052</v>
+        <v>41.19934868064647</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.44527658351696</v>
+        <v>10.52806215783227</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>39.67624090459801</v>
+        <v>41.28997544482223</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.8154404200109</v>
+        <v>49.42643817031116</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>15.34765425936013</v>
+        <v>14.72850164499961</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.0575425901705</v>
+        <v>33.3201812880766</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>43.91444733723802</v>
+        <v>43.83425275465287</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>6.875142350760129</v>
+        <v>6.898693846748429</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.18621128559381</v>
+        <v>33.46255572089257</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>44.54225956706389</v>
+        <v>45.33732137574262</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.05516368315412</v>
+        <v>3.107666383800595</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.92970418967019</v>
+        <v>49.50450105488146</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>67.33765232997729</v>
+        <v>68.42275328182723</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.59114440502594</v>
+        <v>55.22919083296539</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.38673657570965</v>
+        <v>62.85111419843746</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>78.41684456283585</v>
+        <v>80.17339377943405</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>17.04731433218345</v>
+        <v>16.22118388039107</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>54.52358558749364</v>
+        <v>55.03502359168949</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>70.17672835649581</v>
+        <v>71.10226370006521</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.931749455485139</v>
+        <v>10.04079923409586</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.72884935276274</v>
+        <v>14.93148482922732</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.33726970218088</v>
+        <v>28.52753289252021</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.323196299749949</v>
+        <v>5.271441846537307</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.752479242591</v>
+        <v>23.6067201712873</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>31.04798956281367</v>
+        <v>27.13893391672537</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>7.771708608700436</v>
+        <v>8.552970243643927</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>48.30515318241363</v>
+        <v>44.47058643772312</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52.09251672802412</v>
+        <v>48.14769631619141</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.44998653350967</v>
+        <v>18.70772234886283</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.02144728325721</v>
+        <v>20.89404264804565</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.70267424876242</v>
+        <v>24.4745365484306</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>19.58913318073607</v>
+        <v>21.61863365743795</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.57544787716146</v>
+        <v>15.76884553170497</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.67820093031735</v>
+        <v>35.06883642386538</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>12.77591203726078</v>
+        <v>11.99075584002086</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.65667047862049</v>
+        <v>27.02571560099578</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.64599061925027</v>
+        <v>28.95036532018802</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>6.009383680003886</v>
+        <v>6.176538751508595</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>18.97031503457514</v>
+        <v>16.98931075524733</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.52141570893031</v>
+        <v>20.41575494533111</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>4.917292276049977</v>
+        <v>5.773077898497966</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>31.31852746063272</v>
+        <v>28.98216393205743</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>19.02613944356584</v>
+        <v>20.73591519441046</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.09653110391069</v>
+        <v>34.52036299565826</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.24815749982545</v>
+        <v>35.48707035907864</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>4.720333745809391</v>
+        <v>5.60393854737536</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.68681988423207</v>
+        <v>40.492835586602</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>45.57532122547687</v>
+        <v>42.32597008895023</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>8.327985251167608</v>
+        <v>8.667276158265125</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>61.72621475540961</v>
+        <v>59.13919439163944</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.95984872349379</v>
+        <v>54.84120946559086</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>49.14362852602701</v>
+        <v>47.47775979271617</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>58.01258863484473</v>
+        <v>54.91059198085426</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>57.6924477580484</v>
+        <v>54.7481330672418</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.17660408349897</v>
+        <v>26.01376893886738</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>33.75144018151791</v>
+        <v>36.93326523344869</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.93923447530506</v>
+        <v>39.78493831023772</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.87978752308435</v>
+        <v>22.83228808706561</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>38.27409547767829</v>
+        <v>36.13459072603628</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.22808805166238</v>
+        <v>33.7917584060709</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>6.946764495998494</v>
+        <v>6.592729342292053</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>38.00861992165909</v>
+        <v>35.40851097604928</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>34.91468773546417</v>
+        <v>34.20583638801952</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>6.22910140761671</v>
+        <v>6.081256581881988</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>56.61119505398192</v>
+        <v>53.71785637827136</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>5.505543041989597</v>
+        <v>6.934157435958383</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>23.15259025790987</v>
+        <v>22.7811719628852</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.76540760911829</v>
+        <v>29.82986865234971</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.817259587643303</v>
+        <v>3.911155105373101</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>37.09615132614273</v>
+        <v>34.59325913721547</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>40.77694821413507</v>
+        <v>38.21565914812322</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>5.315510689258975</v>
+        <v>6.347798307361458</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>56.86740787346287</v>
+        <v>52.79577044918828</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.67742562138008</v>
+        <v>53.9268508908045</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>58.33422401380771</v>
+        <v>56.05570200532302</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>64.65436634717192</v>
+        <v>63.00105218488138</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>64.89002531499655</v>
+        <v>61.34921612320691</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>8.732430636258922</v>
+        <v>7.532855837236404</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>20.81929346561369</v>
+        <v>23.34999590438454</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.06810279989221</v>
+        <v>30.88029579471786</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.59841782658148</v>
+        <v>16.27290450180383</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>33.9299967903922</v>
+        <v>32.53986513104167</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.06537132688739</v>
+        <v>32.47086049503723</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.161527291416299</v>
+        <v>6.379537211131947</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>32.48148483492224</v>
+        <v>30.19660827067627</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.11550104411976</v>
+        <v>32.94273722503449</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>5.67996054721678</v>
+        <v>7.144497311052255</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.06881216090387</v>
+        <v>47.51288067767394</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3.11078555695288</v>
+        <v>5.084181855372421</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.75117876085611</v>
+        <v>21.30216348283057</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.60744071483147</v>
+        <v>30.33745441612226</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3.599045248737312</v>
+        <v>4.477580073934227</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>40.61741770459835</v>
+        <v>36.54902506612143</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>44.12748586231417</v>
+        <v>41.33936714851926</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3.593068944022296</v>
+        <v>4.794594138525223</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>57.45737346845488</v>
+        <v>52.89066590437372</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>58.74128997578968</v>
+        <v>54.43686527280468</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55.82845061393019</v>
+        <v>52.45816972609227</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>62.13077724800971</v>
+        <v>57.53371874866828</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>64.63186344989496</v>
+        <v>60.96201075458809</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>5.402797072147472</v>
+        <v>6.511981014545288</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>17.64423213671979</v>
+        <v>20.05177024056024</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.28111858795041</v>
+        <v>32.46347357020284</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.49181189085612</v>
+        <v>13.04376987082838</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.93724251448508</v>
+        <v>30.16944856770513</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.49834665928831</v>
+        <v>31.80189992528845</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>6.275556404283329</v>
+        <v>6.018476931795448</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>32.70716251412328</v>
+        <v>29.54424281980264</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.12922033572521</v>
+        <v>33.33528045551871</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>4.448464030633573</v>
+        <v>4.798505162930372</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>46.05939364032166</v>
+        <v>42.9024693557959</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.41296057385216</v>
+        <v>28.37566162863135</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.14765027319459</v>
+        <v>24.21365535763505</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.24349271638938</v>
+        <v>40.91286060875086</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>43.95341323278127</v>
+        <v>43.09021060249955</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.57302095407813</v>
+        <v>13.52630998005326</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.19323691940249</v>
+        <v>26.29955725473583</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.40851968069269</v>
+        <v>33.00375416371773</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>17.24365535143053</v>
+        <v>16.27644443037013</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.91614884577299</v>
+        <v>28.61516740007287</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.70764994502423</v>
+        <v>37.03222224412404</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6.014173567078124</v>
+        <v>5.986360660598407</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.40576036221531</v>
+        <v>14.92634555331765</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.77761570591292</v>
+        <v>22.57382812965189</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>6.746790766575295</v>
+        <v>7.093077125177313</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.71016000574784</v>
+        <v>30.88598705111529</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>54.29455342096914</v>
+        <v>51.45528805107649</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.68871405346364</v>
+        <v>28.03124278115067</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>52.72694955706395</v>
+        <v>49.76477859863881</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>54.78791799957702</v>
+        <v>53.25941466240897</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>16.12765158030443</v>
+        <v>12.9125052101391</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.30376679311736</v>
+        <v>27.93142102758351</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>46.44867809538626</v>
+        <v>42.23655843454534</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>55.87178525717966</v>
+        <v>54.76241388763259</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>55.83012317152276</v>
+        <v>52.20984763079691</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>62.61448057438385</v>
+        <v>59.53739837125608</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>61.32692568561214</v>
+        <v>60.85508314641546</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.88095203173786</v>
+        <v>26.06981611873333</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>58.33448952979096</v>
+        <v>55.63770110382438</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>55.47006515975086</v>
+        <v>54.07885983427645</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.20084977410158</v>
+        <v>25.19010895197651</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>7.072946997236976</v>
+        <v>6.477449759522859</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>44.47415440665075</v>
+        <v>43.39074175953461</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.15798347370549</v>
+        <v>43.06194547558704</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>7.262897872889567</v>
+        <v>7.71350639995083</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>65.20285250391032</v>
+        <v>62.72666791020299</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>67.99419759863018</v>
+        <v>66.27952396957718</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>66.72930262147625</v>
+        <v>64.36032630312178</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>73.86881323255247</v>
+        <v>72.53131183955543</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>76.69380430928388</v>
+        <v>76.18677833958726</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>37.4760876355023</v>
+        <v>33.30752549929298</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>71.53469763954504</v>
+        <v>69.407435045662</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>71.52004093696479</v>
+        <v>70.24476008750815</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.03032738509852</v>
+        <v>56.20161767311485</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>53.59521963614861</v>
+        <v>50.22910388399299</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>58.22070804804419</v>
+        <v>55.61923521828342</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>60.57859328459191</v>
+        <v>60.07886329966757</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.81065259452346</v>
+        <v>20.67353093130094</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>53.64002277209428</v>
+        <v>51.54366339269005</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>52.38496453699599</v>
+        <v>52.47849293631305</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.38901521939816</v>
+        <v>16.74826549341095</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.2930755480556</v>
+        <v>33.43452047021762</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.39473521980683</v>
+        <v>39.00981475787842</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>6.282540832628172</v>
+        <v>6.293350536940679</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>39.42711008141126</v>
+        <v>36.6369707317439</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.20004862343954</v>
+        <v>40.07771612129937</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>8.052938271478197</v>
+        <v>9.578589461159069</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>60.08040577792734</v>
+        <v>57.899946007629</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>68.38616944457334</v>
+        <v>67.58665228939435</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>66.98755704941759</v>
+        <v>65.00789210143751</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>74.20222738639136</v>
+        <v>72.30398635225586</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>77.67802680934713</v>
+        <v>77.02753416963617</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.11574489595027</v>
+        <v>22.90907739208607</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>69.20708121998179</v>
+        <v>65.74656314355545</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>70.46401992957618</v>
+        <v>68.22503547986599</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>52.15886239385708</v>
+        <v>51.36352907981573</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>38.36443687943596</v>
+        <v>35.25988784304941</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.83735994362677</v>
+        <v>41.3303413642896</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>44.90742004778777</v>
+        <v>44.92615226311813</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.9799042582284</v>
+        <v>16.52087971176102</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>50.77400126732527</v>
+        <v>47.53595213434998</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>52.25427157210483</v>
+        <v>51.27426584809318</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.49288831975608</v>
+        <v>15.76063727592801</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.34531095547672</v>
+        <v>35.07465512127798</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.96216608270402</v>
+        <v>43.02307000502773</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.293255619952234</v>
+        <v>6.773533375636887</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>41.37833387705355</v>
+        <v>38.22918470157497</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.37456882701177</v>
+        <v>44.74356911266835</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.652361054001005</v>
+        <v>5.935605767221556</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>58.31571533948704</v>
+        <v>55.54657559417322</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>69.40110142390884</v>
+        <v>67.73590319917892</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>63.91381496485549</v>
+        <v>60.79584041627702</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>74.90608867215964</v>
+        <v>71.55043075099593</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.78383755852808</v>
+        <v>76.9358212158688</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.7551529358051</v>
+        <v>20.0365638394172</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>70.13117858796228</v>
+        <v>65.9780061593019</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>75.67001489979647</v>
+        <v>73.36656558502489</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.55359275353863</v>
+        <v>12.48957469828834</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.55454060787702</v>
+        <v>18.83058238425998</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.55049934455467</v>
+        <v>28.80815308445712</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1.908367239461217</v>
+        <v>2.386733699343843</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.16514957579939</v>
+        <v>15.34237571161468</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.56385451271683</v>
+        <v>19.29382251197809</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.261588207823365</v>
+        <v>3.815243082328386</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.29432905395234</v>
+        <v>42.85459174166213</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>49.26567335857348</v>
+        <v>46.94974462096255</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.74654666881899</v>
+        <v>19.66149061507787</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.20516883312792</v>
+        <v>24.43455422986757</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.35516743976076</v>
+        <v>26.67985115902621</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>9.086548710580864</v>
+        <v>11.71908036797674</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>10.70140534412426</v>
+        <v>14.3100599760653</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.82953331010337</v>
+        <v>22.17425372214464</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.57227096428912</v>
+        <v>16.58428246335726</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>30.94076848856646</v>
+        <v>28.98289198891857</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.9393953575528</v>
+        <v>31.06873219905082</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.208870228663045</v>
+        <v>3.774758295676641</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>16.24655316289596</v>
+        <v>14.44676800902704</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>19.95739401661261</v>
+        <v>18.02914436278228</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.769754524273189</v>
+        <v>3.94019744133314</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.18504995743169</v>
+        <v>30.1641317334537</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.4370144117367</v>
+        <v>26.83089281396318</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>42.73713259747134</v>
+        <v>41.50983672056178</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>40.48476274518276</v>
+        <v>38.17624533325294</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>3.736296624250208</v>
+        <v>3.477093799984619</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>39.92115793094005</v>
+        <v>39.27082970393285</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>42.27191681161714</v>
+        <v>40.20418764155939</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.842456850831969</v>
+        <v>4.486688768937327</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>62.1754200257293</v>
+        <v>59.95465064354937</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.0332615537247</v>
+        <v>55.71601509117468</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.28758557777349</v>
+        <v>47.9465373727449</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>59.78903963225456</v>
+        <v>57.34224376796436</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>59.87251727400842</v>
+        <v>57.78046528262337</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>17.57112340960322</v>
+        <v>18.86114638576246</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.71046448169592</v>
+        <v>43.07936949446746</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>39.52237912150491</v>
+        <v>44.12493170263604</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.7161900845244</v>
+        <v>24.26039143656734</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>40.62682870425802</v>
+        <v>37.36984253633793</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.73469132065333</v>
+        <v>36.71142085289853</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.074801425734123</v>
+        <v>4.339356219957324</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.34683621244453</v>
+        <v>34.98877679326007</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.49335696383619</v>
+        <v>34.18953671686874</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.049118687894982</v>
+        <v>3.798179836741333</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>60.16568798318838</v>
+        <v>57.33970447071155</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>7.869531125129782</v>
+        <v>7.040626006184706</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.55245984115285</v>
+        <v>27.20916527619356</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>32.20916115456613</v>
+        <v>30.8504381999732</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>1.647756977592529</v>
+        <v>2.076424454987013</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>35.93641234109879</v>
+        <v>34.69519316031944</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>39.45840523459869</v>
+        <v>37.68143442219616</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.527622196149323</v>
+        <v>4.012937464121343</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>58.2001145473845</v>
+        <v>55.34279016823362</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>55.51471456850166</v>
+        <v>53.84370502022424</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.53045472586989</v>
+        <v>53.75703016731585</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>62.23531437905698</v>
+        <v>62.52347947507291</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>61.39739039919083</v>
+        <v>59.84467161340609</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1.890010175659377</v>
+        <v>4.169845791356291</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.24827533926976</v>
+        <v>27.21568302311801</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.3973341586714</v>
+        <v>26.18901680496851</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.34584803675605</v>
+        <v>16.12221995717142</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.08177535318134</v>
+        <v>34.74183201057264</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.33766201123388</v>
+        <v>35.14145233819731</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>4.513866408422444</v>
+        <v>4.01474278609528</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>32.96622063027634</v>
+        <v>30.72671191983806</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.77785639728379</v>
+        <v>34.3977581304189</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.165223593835627</v>
+        <v>3.875685030411447</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>53.80571626059986</v>
+        <v>50.30862568386372</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>5.863688691669807</v>
+        <v>5.987481376444762</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.23368472866615</v>
+        <v>27.4997905568147</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>35.22502152737314</v>
+        <v>32.96447205245737</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>3.283966192558651</v>
+        <v>3.252599641953388</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>40.29923937337951</v>
+        <v>36.32312684726163</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>47.66630788144712</v>
+        <v>44.67636169860454</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.797580014923611</v>
+        <v>3.141126502984122</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>63.2710749487231</v>
+        <v>58.24656407732435</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>62.56925063797544</v>
+        <v>58.67741633693278</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>55.62131791206187</v>
+        <v>53.25522742255161</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>63.15060618154402</v>
+        <v>59.60692995211149</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>64.51576653883475</v>
+        <v>62.4371557647569</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>6.118603912698774</v>
+        <v>6.245918820393037</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>34.4856672736075</v>
+        <v>33.51044937516395</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>32.55152870295494</v>
+        <v>33.77701163111719</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>14.04284939971069</v>
+        <v>11.82293241582511</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>35.26190167530333</v>
+        <v>32.20120321103143</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.74152494203136</v>
+        <v>34.09610185168134</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>4.596828906290028</v>
+        <v>4.14694519678266</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.89013204720176</v>
+        <v>31.34805220731122</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.24853093809043</v>
+        <v>36.4184253020091</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>3.30231662999536</v>
+        <v>2.986273366411922</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>51.49338537649774</v>
+        <v>46.66094011957185</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.10875256596854</v>
+        <v>28.6417493771449</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.32000051938707</v>
+        <v>25.15413868547368</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>43.75888123728013</v>
+        <v>41.44488216097614</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>47.49935850463488</v>
+        <v>44.38186846333229</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.09403796361804</v>
+        <v>11.92544048956798</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.87072179079643</v>
+        <v>23.91752290378333</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>33.81713614568379</v>
+        <v>31.32297421397788</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.51232994633408</v>
+        <v>16.77290474571225</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>33.26664035558811</v>
+        <v>30.60770278037288</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.30504907355409</v>
+        <v>36.68650662776906</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.477115913215783</v>
+        <v>4.238699047883291</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.60396317702481</v>
+        <v>13.90218018931383</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.30366789939777</v>
+        <v>23.11643964656615</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.968801581995123</v>
+        <v>5.071476520962879</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.0418247538489</v>
+        <v>32.89507486466911</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>56.80414531063867</v>
+        <v>54.13612678390396</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.31652203372407</v>
+        <v>30.51626777103169</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>51.21137783396172</v>
+        <v>48.73865096736836</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>58.44922584587444</v>
+        <v>56.11685135611123</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.41547087324972</v>
+        <v>11.73127773475551</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.97711408442004</v>
+        <v>28.81361634020864</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.62774978012054</v>
+        <v>42.08401883391301</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>63.01814699735368</v>
+        <v>62.35795683499346</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>61.4800823747943</v>
+        <v>56.99347965619481</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>71.62094252827512</v>
+        <v>66.88306774338271</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>69.43485251807459</v>
+        <v>65.949505714748</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.82966891127274</v>
+        <v>23.64899425876675</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>62.31075162533912</v>
+        <v>58.69074604763461</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>65.21367521408618</v>
+        <v>61.81000694337151</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.8347870045716</v>
+        <v>30.71549376291707</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>46.17445463802812</v>
+        <v>43.35769564205071</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>43.11639576544215</v>
+        <v>42.34206098587553</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>5.475942038746496</v>
+        <v>4.436263016237724</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.23612801642432</v>
+        <v>43.4064293214666</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.51306233235287</v>
+        <v>41.6075246817382</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.479902865376488</v>
+        <v>5.7684942256423</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>68.68841775526118</v>
+        <v>65.82994871031639</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>69.0411141811412</v>
+        <v>67.53801792167624</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>74.02312440545747</v>
+        <v>71.21748082017962</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>80.25797114272213</v>
+        <v>78.22286624961052</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>83.8571926089253</v>
+        <v>82.2121477857319</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>35.92481373576233</v>
+        <v>31.84708586207599</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>76.1008011323524</v>
+        <v>73.60166792407264</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>75.3105298773996</v>
+        <v>73.69190723197099</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>60.66247741753462</v>
+        <v>59.05863086864505</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>57.51093856308156</v>
+        <v>53.6245258776328</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>64.72104351711855</v>
+        <v>60.34962690105031</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>68.73471796875391</v>
+        <v>65.25977119556032</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.83324215881012</v>
+        <v>17.44342973616627</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>57.47096666947719</v>
+        <v>54.66409517942314</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>58.88632141392121</v>
+        <v>56.5428858433139</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.04167986602857</v>
+        <v>19.01910536840557</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>41.42374011924743</v>
+        <v>39.35169400348637</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>39.47625330829554</v>
+        <v>40.0239115532641</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>3.681950772102809</v>
+        <v>3.44032084142113</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.38470105709838</v>
+        <v>36.07590781596028</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.95567795985724</v>
+        <v>39.08291855032472</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.711724540605331</v>
+        <v>6.18472466418601</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>62.52821645539314</v>
+        <v>60.01979834730617</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>67.52161785516488</v>
+        <v>67.2261114401793</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>70.73078767446769</v>
+        <v>68.60566574278582</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>77.52448542749066</v>
+        <v>75.42953456706229</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>83.0344997771019</v>
+        <v>82.04033094067502</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.96332677396732</v>
+        <v>22.66385238951759</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>71.54668164898054</v>
+        <v>68.54184270612733</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>70.4721264330083</v>
+        <v>68.97812888364692</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>61.0064978486661</v>
+        <v>57.61313486754941</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>40.61988863266706</v>
+        <v>36.49200150871359</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>48.36213373803946</v>
+        <v>44.15066686886279</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.48404421228191</v>
+        <v>50.02839894623759</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>15.29784665294153</v>
+        <v>12.93136246568072</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>56.29009874598091</v>
+        <v>51.19023271116134</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>59.46653860079748</v>
+        <v>56.36938757526489</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>18.18773945488017</v>
+        <v>15.56652456516462</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.49056581513095</v>
+        <v>41.16836468801907</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>43.80258844482734</v>
+        <v>43.06176171666831</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>5.261787910781734</v>
+        <v>4.338109763420285</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>44.0271866112454</v>
+        <v>40.33229786129956</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.52340445216144</v>
+        <v>46.41293368387809</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>3.174630590493919</v>
+        <v>3.480975752519043</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>62.52719335336322</v>
+        <v>58.81214188295374</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>70.44346378727145</v>
+        <v>68.76217468776551</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>68.57117999929505</v>
+        <v>64.99776706456062</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>73.78308632827603</v>
+        <v>71.07058286348096</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>82.43848517055456</v>
+        <v>80.76579192032651</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.65485516541661</v>
+        <v>18.22756859199867</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>75.26714213926901</v>
+        <v>70.59576234392765</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>78.26853760188398</v>
+        <v>75.9554845766383</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.58317654286182</v>
+        <v>11.87436613725899</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.63610939853392</v>
+        <v>17.05605948069044</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.13390698840957</v>
+        <v>23.40871754845078</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.9935366526838507</v>
+        <v>1.601542584224319</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.41822241511022</v>
+        <v>12.5086559200992</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.25862017060561</v>
+        <v>14.69648380048815</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.616692114637448</v>
+        <v>4.066346974361259</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.01918369564829</v>
+        <v>29.21975105558735</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.48916791974278</v>
+        <v>32.649527117861</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.83319070433365</v>
+        <v>15.61225901695827</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.34362785100706</v>
+        <v>19.68607569962353</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>18.47940252191847</v>
+        <v>20.59453548016698</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.04921020772367</v>
+        <v>11.45209619459858</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.53953535920905</v>
+        <v>15.30647013498613</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.78668509995821</v>
+        <v>26.61149487938576</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.239049806063594</v>
+        <v>8.426719817638688</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>19.81788852060854</v>
+        <v>20.64827359576644</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.60815107905698</v>
+        <v>23.27211238191465</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.4628897465397586</v>
+        <v>0.1325034021832536</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.75322910031241</v>
+        <v>5.943014899281501</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.408349169066412</v>
+        <v>9.09318970885991</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.858060748562806</v>
+        <v>2.120116075863756</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>17.13100268003144</v>
+        <v>18.22268378183262</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.94794441787082</v>
+        <v>14.50565209000498</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.2676478902845</v>
+        <v>24.84812979107572</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.99305262124824</v>
+        <v>24.5798906665315</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>0.3509490115126646</v>
+        <v>0.9081505301727049</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.37419371686186</v>
+        <v>23.75986591760822</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.1572113303891</v>
+        <v>24.79780702938</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.794514261033157</v>
+        <v>4.320033027308096</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>37.11646491653809</v>
+        <v>38.01883237100165</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.75849983428714</v>
+        <v>38.04987383751411</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.44641087379998</v>
+        <v>36.57577504961694</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>40.88663317426455</v>
+        <v>42.19237512019746</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.49000192780804</v>
+        <v>44.68070387952763</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>18.21207587428537</v>
+        <v>18.72966697899473</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.48840830922918</v>
+        <v>42.25141077643211</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.36120666620144</v>
+        <v>44.69147917884052</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.46158524619039</v>
+        <v>12.79183248743044</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.22963410359723</v>
+        <v>24.62713765113331</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.7390110152059</v>
+        <v>27.09021396408934</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-0.8888027731521859</v>
+        <v>-0.03736732746943261</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>19.62047807564037</v>
+        <v>21.5719176188671</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.15968332081054</v>
+        <v>24.06333401683187</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>1.520226249780634</v>
+        <v>1.880324451640412</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.14506642513253</v>
+        <v>38.71837630977053</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>5.889677936542085</v>
+        <v>5.596926268425818</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.37562848388763</v>
+        <v>17.82707150198333</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.80110328688534</v>
+        <v>23.00957192343357</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.8121546178550538</v>
+        <v>1.004783278466675</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.54251348868207</v>
+        <v>23.14155038551091</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.0783889624136</v>
+        <v>24.45897707441758</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>6.664427735059189</v>
+        <v>6.503826170801254</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.21966464683547</v>
+        <v>39.33538391350538</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>39.50897268292122</v>
+        <v>40.88905364684268</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.40316445962736</v>
+        <v>41.06130584278401</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.18412459954742</v>
+        <v>44.27784166096257</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.87943056395704</v>
+        <v>46.73003636980873</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>7.380881500830483</v>
+        <v>6.454815868262738</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>30.97176309804539</v>
+        <v>30.0826529508712</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>34.20861532641135</v>
+        <v>34.32716794785439</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>6.672969545506977</v>
+        <v>7.274055704762745</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.4187460174601</v>
+        <v>23.36752286179872</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.20286501811962</v>
+        <v>26.87296695796245</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-0.8007424639650935</v>
+        <v>-0.5248848992049062</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.10015684801985</v>
+        <v>16.9156839507046</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>23.29373090060056</v>
+        <v>24.98674438105905</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>3.185622624636679</v>
+        <v>3.608577393446616</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.97797390269808</v>
+        <v>32.13919585441617</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.788367960915142</v>
+        <v>4.225988621020328</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.70525136927914</v>
+        <v>13.9884417945414</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>20.73658857286923</v>
+        <v>21.22328507104756</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-0.1172134184564158</v>
+        <v>0.2778050834407466</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>20.31643838203553</v>
+        <v>21.07542475458518</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.62956644390766</v>
+        <v>27.98603878000153</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.4915840478365112</v>
+        <v>0.9003047460550633</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>32.23567676882134</v>
+        <v>33.6542106050158</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>38.67768028202817</v>
+        <v>39.96207309954589</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.50576941128754</v>
+        <v>32.17199792296216</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.39675225068854</v>
+        <v>36.18644248026432</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.21439569338601</v>
+        <v>41.67411841855429</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.283274238066276</v>
+        <v>4.428850070623355</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.82628351361155</v>
+        <v>28.30831621986407</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>38.1120150730108</v>
+        <v>39.05404141581717</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>3.686050351184775</v>
+        <v>3.809221805205421</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>18.77433770820991</v>
+        <v>19.30477673416382</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.2752177614895</v>
+        <v>25.06589636429192</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1.166515095872192</v>
+        <v>-0.4112304072429467</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>14.58006918275569</v>
+        <v>16.05818066891065</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.01586411860095</v>
+        <v>25.19296106722612</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.2638644781253134</v>
+        <v>0.6661657252166862</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.70470441580115</v>
+        <v>26.68817398870066</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.22839768136158</v>
+        <v>18.07557047094596</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>13.48526858718962</v>
+        <v>14.56051625380954</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.82345164227755</v>
+        <v>25.76996280769468</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.18998454632589</v>
+        <v>28.21696009254874</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.006484328875821</v>
+        <v>5.483877575847359</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>11.68085191329588</v>
+        <v>12.67094784101682</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.07920427802725</v>
+        <v>18.31407398247765</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.21140160512965</v>
+        <v>13.8982137535122</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.79188880374599</v>
+        <v>25.30042799598409</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.19016236325365</v>
+        <v>32.01541509624978</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-1.504785511588864</v>
+        <v>-0.1061429176393567</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>6.345293451654356</v>
+        <v>6.946698084381627</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.68108820019232</v>
+        <v>14.16953236193226</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.973673677706159</v>
+        <v>3.429771851431795</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.82373075536483</v>
+        <v>23.87052368604751</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.55208145391624</v>
+        <v>39.78502442088444</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.77051116678484</v>
+        <v>21.60941144898129</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.56410130869702</v>
+        <v>34.32052333364489</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.91593896966629</v>
+        <v>39.86765938533044</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.054754727777492</v>
+        <v>6.795326453083362</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.85415080505803</v>
+        <v>19.46655538646058</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.87479410364797</v>
+        <v>29.50405539356113</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>40.28155103944238</v>
+        <v>43.45478998004772</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.56359182696728</v>
+        <v>39.63630959758189</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>45.41706979381973</v>
+        <v>47.31555895422937</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.73029830687226</v>
+        <v>44.93688542142483</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>11.91303804533482</v>
+        <v>12.51549637931612</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.50164964101761</v>
+        <v>41.59144586704141</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.50513129445642</v>
+        <v>44.20380025726449</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.35142065011561</v>
+        <v>24.41629412268004</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>34.99140022085845</v>
+        <v>35.25363349829469</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.77130357773692</v>
+        <v>38.43252951132118</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>0.79672126919818</v>
+        <v>1.377546579465395</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>33.34555843078136</v>
+        <v>34.5126419726007</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.42164360620964</v>
+        <v>35.85061225339014</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>8.554313344859864</v>
+        <v>8.433361934469474</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>57.44516386944143</v>
+        <v>56.98616896829249</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>55.95534429011389</v>
+        <v>57.40670799588612</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>67.42559223910079</v>
+        <v>67.89317525964364</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>70.46341234009169</v>
+        <v>71.32634253131098</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.36457108299268</v>
+        <v>73.51814492030817</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>32.31644093707966</v>
+        <v>30.11602052989348</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>63.0278805188867</v>
+        <v>64.11211993320603</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.76632194715505</v>
+        <v>66.81976934323691</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.38938588710697</v>
+        <v>43.48143947203771</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.33807415527482</v>
+        <v>33.35894250949924</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.40602145023853</v>
+        <v>39.76080250998913</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.2888057780213</v>
+        <v>45.35859525903081</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.354157043837752</v>
+        <v>6.863794443218104</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>38.02085698753923</v>
+        <v>39.56461066867367</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.49680162674275</v>
+        <v>42.97434028680746</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.18032607308542</v>
+        <v>15.57434688447265</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.82710073399377</v>
+        <v>32.92211929428441</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.82494188786196</v>
+        <v>37.68811520056471</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>-0.3838430330660145</v>
+        <v>0.4380115845024974</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.75896591329624</v>
+        <v>31.0418589818313</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.01791919349151</v>
+        <v>35.48563260525944</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.016569063380103</v>
+        <v>8.657585562910509</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>53.94139380187761</v>
+        <v>53.81587095483157</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>58.69516103382834</v>
+        <v>60.58753183264827</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>63.81593148301971</v>
+        <v>63.70853406635423</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>69.68686023543654</v>
+        <v>69.4558028545503</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.66599660928661</v>
+        <v>74.74251439833398</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.1031603364725</v>
+        <v>19.91922574094</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>61.75263978144342</v>
+        <v>62.17216884627538</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>66.91444304356932</v>
+        <v>67.8478266839212</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.47280619386375</v>
+        <v>42.07559352243062</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>17.74407165075944</v>
+        <v>18.99786863183509</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.49234497739278</v>
+        <v>25.8966613057374</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.31767559019728</v>
+        <v>32.6303445122126</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>2.663455969255075</v>
+        <v>3.32644788219201</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.46692547161104</v>
+        <v>33.96262729785748</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.97147000835785</v>
+        <v>42.03928451075713</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.74321153100124</v>
+        <v>11.54969143251671</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.03824676411669</v>
+        <v>32.6039764636063</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.07223747676274</v>
+        <v>38.93554338959973</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-0.4276983555651981</v>
+        <v>0.2172021547799936</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.16913761174648</v>
+        <v>30.42893144233687</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.92765061188985</v>
+        <v>39.06638278473235</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.892401416595263</v>
+        <v>3.078722630701446</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.95999428767841</v>
+        <v>49.29357261078204</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>59.07312473364769</v>
+        <v>60.66072376854716</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>54.20320229547255</v>
+        <v>53.37877973104202</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.74901845677346</v>
+        <v>61.05834067929656</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>68.76051711065426</v>
+        <v>70.25951152583727</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>10.06024797253762</v>
+        <v>10.24749842691006</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.14767160775024</v>
+        <v>55.41707688832928</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>67.64397300641402</v>
+        <v>68.27708096021502</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.29437715327515</v>
+        <v>10.75608524426701</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>17.18725066512423</v>
+        <v>15.92396141099514</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.66880739512073</v>
+        <v>27.358745851154</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.654947167512901</v>
+        <v>2.595316066726003</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>18.45007115143083</v>
+        <v>16.87030863897823</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>20.50169247833368</v>
+        <v>18.89688600714668</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>8.093902536280662</v>
+        <v>7.919640580397221</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.28931755779806</v>
+        <v>35.20579324460667</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>39.04092446640626</v>
+        <v>39.04250959304405</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.89886779990217</v>
+        <v>15.10881411793389</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.17294086244735</v>
+        <v>19.55315537635206</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.3522382871685</v>
+        <v>24.49097431765174</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.29114805430513</v>
+        <v>16.33855445707824</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>14.5831402451111</v>
+        <v>14.25786249999234</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.47752055177569</v>
+        <v>29.76276242551775</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.28990942940577</v>
+        <v>10.13022148260666</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.78590109787778</v>
+        <v>29.84239672245095</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.88223441505855</v>
+        <v>37.99290002527906</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1.83064015054704</v>
+        <v>2.19892991478244</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>11.25156581195439</v>
+        <v>10.91782418275582</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.67442329133315</v>
+        <v>15.35198360053721</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2.064804884884552</v>
+        <v>1.864989259966784</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.51297185367078</v>
+        <v>23.41173761266131</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>18.3336946535232</v>
+        <v>19.11814636227802</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.46210675457393</v>
+        <v>30.37634749357165</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.48081414284668</v>
+        <v>30.06754921511085</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.198236664667867</v>
+        <v>1.448219030402765</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.56849369817285</v>
+        <v>33.22688774329963</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>38.29890408981944</v>
+        <v>36.8638402797304</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.831077477750416</v>
+        <v>6.581937010846612</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>52.71036048326552</v>
+        <v>52.23242439834011</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.13656612747207</v>
+        <v>48.1192600906268</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>50.00010786835411</v>
+        <v>49.29461655855283</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>57.0741598086193</v>
+        <v>56.62188107161825</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.86974430677182</v>
+        <v>54.62826805069299</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.41151123710687</v>
+        <v>22.59365052725433</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.69658221562445</v>
+        <v>43.10774981484856</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.78772444617385</v>
+        <v>46.13203068490274</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.71082179318889</v>
+        <v>19.38954683991567</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.16678147742387</v>
+        <v>40.95949520538505</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.92475380402558</v>
+        <v>43.60428020892137</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4.142202997008425</v>
+        <v>3.671379914658882</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.74435447332635</v>
+        <v>35.19904409340273</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.40045531190363</v>
+        <v>43.21917358811791</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>4.756052425166885</v>
+        <v>3.421429048815657</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>61.94734728220413</v>
+        <v>62.49907339520279</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>6.655087958100445</v>
+        <v>6.892827564167089</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.97995836074663</v>
+        <v>19.86075403062112</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.00263121589334</v>
+        <v>26.8058261750461</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-0.1505794054679583</v>
+        <v>0.05711772251143188</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>30.37802117054626</v>
+        <v>30.02115951736969</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.33999122189762</v>
+        <v>33.81403704250486</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3.349457196067377</v>
+        <v>3.572853559305372</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>47.6247687937862</v>
+        <v>45.79359662668961</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.31683080480288</v>
+        <v>50.76180106676424</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>52.72370339867024</v>
+        <v>51.18951383317669</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.86012610613813</v>
+        <v>58.8058512133301</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>58.99450603598455</v>
+        <v>58.81663876361728</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.83167608135755</v>
+        <v>8.111805061446972</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.23506984350259</v>
+        <v>32.14155164191343</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>38.86401098309685</v>
+        <v>37.78032961588815</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.23436684042994</v>
+        <v>10.78872454845922</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>34.04183702767011</v>
+        <v>33.58098971649108</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>43.04044931840335</v>
+        <v>43.07446016229208</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.084191492700796</v>
+        <v>2.518048932477704</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.99462955950229</v>
+        <v>26.66162118308454</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.05591253414034</v>
+        <v>42.46887919603103</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>0.5910495651991923</v>
+        <v>1.643259837337787</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>48.27710609197981</v>
+        <v>45.13278641259735</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>3.959785358283032</v>
+        <v>4.533580089383733</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.05550438759535</v>
+        <v>16.87262051727136</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.2100618417323</v>
+        <v>25.57517744541449</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.9549178879330213</v>
+        <v>0.8560049827335234</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>31.75945127227091</v>
+        <v>30.11543750832105</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.29137205600038</v>
+        <v>36.26160702483123</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1.899245996033216</v>
+        <v>1.989743602971956</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>45.70747169794782</v>
+        <v>44.86135637788435</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>51.88902797190919</v>
+        <v>50.67397363876938</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.1018643343921</v>
+        <v>41.64814980858625</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>48.19719400330014</v>
+        <v>47.83028453615808</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>51.93177027699968</v>
+        <v>51.77287970780386</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.092158507785669</v>
+        <v>7.009302541948898</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.9827542185072</v>
+        <v>25.49358392880261</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.83972826820415</v>
+        <v>38.06785191924496</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>6.718205057549781</v>
+        <v>7.413048852112823</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.35006244777104</v>
+        <v>29.29710026690605</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>42.14655322795959</v>
+        <v>41.09329886706551</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>3.093981936204628</v>
+        <v>2.799632718074996</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.17760093353181</v>
+        <v>25.51036204180925</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>42.24166156450038</v>
+        <v>41.84947915084452</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.6618228670814972</v>
+        <v>1.421544557897352</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.86490525752893</v>
+        <v>41.45781173100563</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.62976234295828</v>
+        <v>29.13401215096704</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.99201524299485</v>
+        <v>24.11025102713264</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>50.72144034465924</v>
+        <v>48.79739410304742</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>60.19078075338211</v>
+        <v>56.55662774464582</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>5.898861873511947</v>
+        <v>6.103871546013252</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.35557497864025</v>
+        <v>18.87231831261989</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.54966495386738</v>
+        <v>30.36896557159639</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.11447334423018</v>
+        <v>13.18620832572528</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.81641804688903</v>
+        <v>29.61659144507097</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.57763045321998</v>
+        <v>41.11098411697159</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1.733944175210823</v>
+        <v>1.960933675427579</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>8.195036270060413</v>
+        <v>8.322725861668427</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.86247809550295</v>
+        <v>14.75275416947077</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.723504922894946</v>
+        <v>2.722649555120942</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.4027831263498</v>
+        <v>23.26683079937417</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>41.2816074906065</v>
+        <v>40.4973703375195</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.23187486149197</v>
+        <v>27.1294289509386</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>52.79189581864765</v>
+        <v>50.97828231415383</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>61.31518673888313</v>
+        <v>59.43726699894842</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.469562411612472</v>
+        <v>5.984116444059907</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.28675462781261</v>
+        <v>20.35921326224083</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.68065123421344</v>
+        <v>29.76905891316257</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>74.18214881628998</v>
+        <v>71.57635581473752</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.92210198346289</v>
+        <v>65.69661414651671</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>80.70226609463688</v>
+        <v>78.73331531065507</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>86.65344117624133</v>
+        <v>80.82471111598284</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.80510346675845</v>
+        <v>21.930661430533</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>77.10377913427686</v>
+        <v>78.04981402630708</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>83.82089615048436</v>
+        <v>80.95577777815078</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.96835737761828</v>
+        <v>26.48966691939115</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.74195092906476</v>
+        <v>46.74524817482791</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>51.38748627138368</v>
+        <v>50.00122550424112</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.881342443313144</v>
+        <v>4.509932840254915</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>46.4566749070961</v>
+        <v>41.84521811098803</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>53.01138120612062</v>
+        <v>51.69707972569407</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>9.038920354473944</v>
+        <v>8.358908711225904</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>78.83133024747009</v>
+        <v>77.89239224726327</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>80.67651111750466</v>
+        <v>79.28904276275722</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>86.44196647953949</v>
+        <v>85.04936958497998</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>94.40111722255996</v>
+        <v>92.16644645543678</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>97.70506954071075</v>
+        <v>95.62349970281358</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.50985545428414</v>
+        <v>32.94361928340068</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>94.26179215811972</v>
+        <v>92.37965726055879</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>95.72300718531794</v>
+        <v>93.53890620001383</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>74.32471883446701</v>
+        <v>72.15372311104609</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>48.52828504359225</v>
+        <v>46.64615002237439</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>63.02692404479279</v>
+        <v>61.22640463232442</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>82.15383539429786</v>
+        <v>80.94921775192174</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.18517281107848</v>
+        <v>12.60286664499579</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>66.60465827523007</v>
+        <v>64.48530979454901</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>78.57694307085342</v>
+        <v>76.07063339657142</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>11.94075915310332</v>
+        <v>12.47951652186382</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>38.89555013104734</v>
+        <v>38.14770418048847</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.42639689749848</v>
+        <v>46.06438202238752</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.683304819507654</v>
+        <v>3.586687986198886</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>42.43536002540706</v>
+        <v>41.49665996736242</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>53.45142399188337</v>
+        <v>52.34606213019273</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3.440284867288369</v>
+        <v>2.61759990141995</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>67.9461698537956</v>
+        <v>66.30745127957005</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>80.81001374366464</v>
+        <v>80.01433379516959</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>78.01279404591756</v>
+        <v>77.17879544163685</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>90.51819004245854</v>
+        <v>88.76239292251171</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>95.97250220935469</v>
+        <v>94.94986689495897</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>19.8263842389762</v>
+        <v>20.24060999275385</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>87.4459973601812</v>
+        <v>83.80015631164017</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>94.1755767054954</v>
+        <v>90.96695370124056</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>73.34005232632813</v>
+        <v>70.89497367612572</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.08032028377532</v>
+        <v>32.12080626905923</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>46.95847607839292</v>
+        <v>45.19258818334792</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>65.75573716965934</v>
+        <v>63.13763673672295</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>8.553208996226125</v>
+        <v>8.810759744067298</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>58.45688504563466</v>
+        <v>56.30404371722523</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>74.26808017793051</v>
+        <v>71.69008181980149</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.29022343655961</v>
+        <v>11.08366920178417</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.14355049518599</v>
+        <v>38.68568067476811</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.88705845707875</v>
+        <v>51.14418422028048</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>4.000070464747395</v>
+        <v>3.88575166803718</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.73375735128521</v>
+        <v>39.10928205192211</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>55.93370056197163</v>
+        <v>54.95938090782497</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2.113206965539476</v>
+        <v>1.958224058820552</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>63.555493330343</v>
+        <v>62.04708551250747</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>83.29445494730875</v>
+        <v>82.01228386109815</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>72.01599222792848</v>
+        <v>69.75344551330032</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>89.79947260830701</v>
+        <v>85.92272585652881</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>98.0190815992575</v>
+        <v>96.80873489336324</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>15.15536577962723</v>
+        <v>15.16092087456244</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>84.13107846136415</v>
+        <v>82.48339662333714</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>93.11342177829236</v>
+        <v>90.91224679832067</v>
       </c>
     </row>
   </sheetData>
